--- a/biology/Botanique/Psammodiscaceae/Psammodiscaceae.xlsx
+++ b/biology/Botanique/Psammodiscaceae/Psammodiscaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Psammodiscaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Rhaphoneidales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Psammodiscus, dérivé du grec ψαμμος / psammos, sable, et de δισκος / diskos, disque, en référence à l'habitat de cette diatomée qui « pousse dans l'épipsammon marin[note 1] »[1] et, d'autre part, à sa forme en disque[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Psammodiscus, dérivé du grec ψαμμος / psammos, sable, et de δισκος / diskos, disque, en référence à l'habitat de cette diatomée qui « pousse dans l'épipsammon marin[note 1] » et, d'autre part, à sa forme en disque.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,9 +612,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 mai 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 mai 2022) :
 Psammodiscus Round &amp; D.G.Mann, 1980</t>
         </is>
       </c>
@@ -625,9 +645,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Psammodiscaceae a été créée en 1990 par Frank Eric Round (d) et David George Mann (d)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Psammodiscaceae a été créée en 1990 par Frank Eric Round (d) et David George Mann (d).
 </t>
         </is>
       </c>
@@ -656,7 +678,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Round, F.E., Crawford, R.M. &amp; Mann, D.G. (1990). The diatoms biology and morphology of the genera.  pp. [i-ix], 1-747. Cambridge: Cambridge University Press.</t>
         </is>
